--- a/docs/collections/hakubutsunotomo/metadata/data.xlsx
+++ b/docs/collections/hakubutsunotomo/metadata/data.xlsx
@@ -200,7 +200,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/478158</t>
   </si>
   <si>
-    <t>東京大学総合図書館 General Library, The University of Tokyo, JAPAN</t>
+    <t>東京大学柏図書館 Kashiwa Library, The University of Tokyo, JAPAN</t>
   </si>
   <si>
     <t>博物之友</t>
